--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Ashraf Farouk Kassem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210060</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -672,7 +681,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>4240002</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +771,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6654846412</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -794,7 +803,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6784016204</x:v>
+        <x:v>45907.6654846412</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -826,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45906.6784016204</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Ashraf Farouk Kassem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله فريد عبدالله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210060</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed abdelnaby abdelwahab mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>1240210</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -858,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45924.3602009259</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648693634</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.6648693634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>mennatullah hamdy hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نورالدين عيد محمد فتحى سيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NourEldeen Eid Mohamed Fathi Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220087</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -954,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45928.8507486111</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1530,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45928.7984668982</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -159,13 +159,13 @@
     <x:t>SARA</x:t>
   </x:si>
   <x:si>
-    <x:t>1240079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه محمود محمد احمد إبراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1210058</x:t>
@@ -1210,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45928.4344083333</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Sama Mohamed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف طارق عبدالستار محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif tarek abd El sattar</x:t>
   </x:si>
   <x:si>
     <x:t>1210058</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45931.4724946412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45928.7984668982</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45928.7984668982</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35428.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35428.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>SARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1220059</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.4344083333</x:v>
+        <x:v>45931.4724946412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45931.4724946412</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45907.4208378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4208378472</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45928.7984668982</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45928.7984668982</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
